--- a/test_files/test_schedule_1_mock.xlsx
+++ b/test_files/test_schedule_1_mock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.mitter\Documents\streamscheduler\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF159EA6-24AB-49AB-B113-4BD08C541E82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C3956D-FFF3-4B59-8C79-4BCA5A72623A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_schedule_1" sheetId="1" r:id="rId1"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -934,7 +934,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>44003</v>
+        <v>45829</v>
       </c>
       <c r="B2" s="2">
         <v>0.5</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>44004</v>
+        <v>45830</v>
       </c>
       <c r="B3" s="2">
         <v>0.54166666666666663</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>44400</v>
+        <v>45861</v>
       </c>
       <c r="B4" s="2">
         <v>0.58333333333333337</v>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
